--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F8" s="3">
         <v>153100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>138500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>138700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>115800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>138200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>136300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>127100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>87400</v>
+      </c>
+      <c r="F9" s="3">
         <v>123400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>111600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>113100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>98100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>126200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>117500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>109000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F10" s="3">
         <v>29700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>25600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>17700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>18100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,45 +904,57 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -917,19 +963,25 @@
         <v>900</v>
       </c>
       <c r="H15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J15" s="3">
         <v>1300</v>
       </c>
       <c r="K15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>108900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>108800</v>
+      </c>
+      <c r="F17" s="3">
         <v>143200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>130400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>134000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>121400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>154400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>142900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>130600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F18" s="3">
         <v>9900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-10100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-14100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-18700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-600</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>10100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1554,16 +1728,22 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,124 +1771,154 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F43" s="3">
         <v>106300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>82200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>79700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>76400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>87400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>72700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>71300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>125600</v>
+      </c>
+      <c r="F44" s="3">
         <v>108800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>114700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>109800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>117800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>105600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>112400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>96000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>26900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>26600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>251300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>201400</v>
+      </c>
+      <c r="F46" s="3">
         <v>222500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>210500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>206000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>218500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>216000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>214000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>193900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1946,84 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F48" s="3">
         <v>43900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>45100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>46000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>47100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>24500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>24900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F49" s="3">
         <v>43200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>44100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>45000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>45900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>46800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>50400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>51700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>290000</v>
+      </c>
+      <c r="F54" s="3">
         <v>313700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>303400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>314200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>289900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>292700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>274100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F57" s="3">
         <v>75800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>86300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>83900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>85200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>85200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>88800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>64400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F58" s="3">
         <v>39700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>36900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>53600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>56900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>54600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>52500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>54300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>75600</v>
+      </c>
+      <c r="F59" s="3">
         <v>66000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>57800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>45300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>93000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>80800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>88700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>75600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>214900</v>
+      </c>
+      <c r="F60" s="3">
         <v>181600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>181000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>182800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>235100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>220600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>230000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>194300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>55700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>55700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>55600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>55200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>54700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>54800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>54600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47900</v>
+        <v>38000</v>
       </c>
       <c r="E62" s="3">
         <v>46300</v>
       </c>
       <c r="F62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H62" s="3">
         <v>47600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>44900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>17200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>327500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>262100</v>
+      </c>
+      <c r="F66" s="3">
         <v>285200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>283100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>286000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>335200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>308500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>302000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>265200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-126900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-135000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-140700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-137700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-135200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-125300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-106400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F76" s="3">
         <v>28500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>14400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-21000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
         <v>2200</v>
       </c>
       <c r="G83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I83" s="3">
         <v>2300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>17200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>35200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E8" s="3">
         <v>93100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>153100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>138500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>138700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>115800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>136300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>127100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E9" s="3">
         <v>89300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>87400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>123400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>113100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>126200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>117500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,22 +927,25 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -933,20 +953,23 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,7 +980,7 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -969,7 +992,7 @@
         <v>900</v>
       </c>
       <c r="J15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K15" s="3">
         <v>1300</v>
@@ -978,10 +1001,13 @@
         <v>1300</v>
       </c>
       <c r="M15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E17" s="3">
         <v>108900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>108800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>143200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>130400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>134000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>154400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>142900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2100</v>
       </c>
       <c r="I22" s="3">
         <v>2100</v>
       </c>
       <c r="J22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>500</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>-1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-700</v>
+        <v>-17300</v>
       </c>
       <c r="F26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G26" s="3">
         <v>8100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17700</v>
+        <v>-1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>-17300</v>
       </c>
       <c r="F27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G27" s="3">
         <v>8100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,31 +1450,34 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E41" s="3">
         <v>32500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1867,163 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E43" s="3">
         <v>67800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>87400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E44" s="3">
         <v>140300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>125600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>108800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>109800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>117800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>112400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>96000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E46" s="3">
         <v>251300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>201400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>222500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>210500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>206000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>218500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>216000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>214000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>193900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E48" s="3">
         <v>41200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>42400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>47100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E49" s="3">
         <v>41700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>43200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="3">
         <v>3800</v>
       </c>
       <c r="F52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>2700</v>
       </c>
       <c r="K52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E54" s="3">
         <v>337900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>290000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>313700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>303400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>314200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>289900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>292700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>274100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E57" s="3">
         <v>67400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>75800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>86300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>85200</v>
       </c>
       <c r="J57" s="3">
         <v>85200</v>
       </c>
       <c r="K57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="L57" s="3">
         <v>88800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>64400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,104 +2405,113 @@
         <v>130300</v>
       </c>
       <c r="E58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="F58" s="3">
         <v>72000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>39700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>36900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>56900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>54600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>52500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E59" s="3">
         <v>91000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>80800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>258600</v>
+      </c>
+      <c r="E60" s="3">
         <v>288700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>214900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>181600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>181000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>182800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>235100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>220600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>230000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>194300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,69 +2519,75 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>55700</v>
       </c>
       <c r="G61" s="3">
         <v>55700</v>
       </c>
       <c r="H61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I61" s="3">
         <v>55600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>55200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>54700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>54600</v>
       </c>
       <c r="M61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E62" s="3">
         <v>38000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>44900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E66" s="3">
         <v>327500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>285200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>283100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>286000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>335200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>308500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>302000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>265200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-127600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-126900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-135000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-140700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-137700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-135200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-125300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-106400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-21000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3044,7 +3243,7 @@
         <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>2200</v>
@@ -3053,22 +3252,25 @@
         <v>2200</v>
       </c>
       <c r="I83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2600</v>
       </c>
       <c r="L83" s="3">
         <v>2600</v>
       </c>
       <c r="M83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3301,34 +3522,37 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>56100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-16700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>35200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3678,18 +3930,21 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F8" s="3">
         <v>114500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>93100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>105100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>153100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>138500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>138700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>115800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>138200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>136300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>127100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F9" s="3">
         <v>96300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>89300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>87400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>123400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>111600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>113100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>98100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>126200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>117500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>109000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F10" s="3">
         <v>18200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>17700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>29700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>26900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>25600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>18100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F12" s="3">
         <v>6600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,51 +963,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -983,10 +1028,10 @@
         <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>900</v>
@@ -995,19 +1040,25 @@
         <v>900</v>
       </c>
       <c r="K15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="L15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="M15" s="3">
         <v>1300</v>
       </c>
       <c r="N15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>115800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>106600</v>
+      </c>
+      <c r="F17" s="3">
         <v>115600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>108900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>108800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>143200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>130400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>134000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>121400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>154400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>142900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-15800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-10100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-14100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-18700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-600</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-18800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,25 +1568,31 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>2300</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1479,11 +1600,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>5400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>10100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,28 +1965,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F41" s="3">
         <v>26700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>32500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1824,16 +1997,22 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,160 +2049,190 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F43" s="3">
         <v>64700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>67800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>67400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>106300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>82200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>79700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>76400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>87400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>72700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>71300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>108200</v>
+      </c>
+      <c r="F44" s="3">
         <v>128800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>140300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>125600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>108800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>114700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>109800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>117800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>105600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>112400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>96000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>26600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>202700</v>
+      </c>
+      <c r="F46" s="3">
         <v>230000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>251300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>201400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>222500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>210500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>206000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>218500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>216000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>214000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>193900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F48" s="3">
         <v>39200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>41200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>42400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>45100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>46000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>47100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>24300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>24500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40200</v>
+      </c>
+      <c r="F49" s="3">
         <v>40900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>41700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>42400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>43200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>44100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>45000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>45900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>46800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>50400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>51700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>284000</v>
+      </c>
+      <c r="F54" s="3">
         <v>314100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>337900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>290000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>313700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>303400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>314200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>289900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>292700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>274100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>67400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>67300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>75800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>86300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>83900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>85200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>85200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>88800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>64400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,186 +2675,216 @@
         <v>130300</v>
       </c>
       <c r="F58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="H58" s="3">
         <v>72000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>39700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>36900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>53600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>56900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>54600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>52500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>54300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>77600</v>
+      </c>
+      <c r="F59" s="3">
         <v>83000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>91000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>75600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>66000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>57800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>93000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>80800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>88700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>75600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>251900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>239500</v>
+      </c>
+      <c r="F60" s="3">
         <v>258600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>288700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>214900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>181600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>181000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>182800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>235100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>220600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>230000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>194300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>55700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>55700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>55600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>55200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>54700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>54800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>54600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F62" s="3">
         <v>45700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>38000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>46300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>47900</v>
       </c>
       <c r="H62" s="3">
         <v>46300</v>
       </c>
       <c r="I62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K62" s="3">
         <v>47600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>44900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>33100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>277900</v>
+      </c>
+      <c r="F66" s="3">
         <v>305000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>327500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>262100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>285200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>283100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>286000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>335200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>308500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>302000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>265200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-149900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-146800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-145400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-127600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-126900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-135000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-140700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-137700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-135200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-125300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-106400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F76" s="3">
         <v>9000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-21000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-18600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2100</v>
       </c>
       <c r="G83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I83" s="3">
         <v>2200</v>
       </c>
       <c r="J83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>24300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-10500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,37 +3963,43 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>56100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-22700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-16700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>17200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>35200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E8" s="3">
         <v>100200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>105000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>93100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>105100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>153100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>138500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>136300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>127100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E9" s="3">
         <v>93100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>96300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>89300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>113100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>117500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>18800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>29700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1001,20 +1021,23 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1045,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -1034,7 +1057,7 @@
         <v>800</v>
       </c>
       <c r="I15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>900</v>
@@ -1046,7 +1069,7 @@
         <v>900</v>
       </c>
       <c r="M15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="N15" s="3">
         <v>1300</v>
@@ -1055,10 +1078,13 @@
         <v>1300</v>
       </c>
       <c r="P15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E17" s="3">
         <v>115800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>108900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>108800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>143200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>130400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>121400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>154400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>142900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,183 +1221,195 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1500</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
       </c>
       <c r="G22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2100</v>
       </c>
       <c r="L22" s="3">
         <v>2100</v>
       </c>
       <c r="M22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1372,34 +1418,37 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-18200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-18200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,28 +1632,31 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1606,8 +1667,8 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-18200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-18200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>23400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E43" s="3">
         <v>56500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>106300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>87400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>72700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>71300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E44" s="3">
         <v>109100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>108200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>140300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>125600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>108800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>114700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>109800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>117800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>105600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>112400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>96000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209500</v>
+      </c>
+      <c r="E46" s="3">
         <v>200100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>202700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>230000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>251300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>201400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>222500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>210500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>206000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>218500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>216000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>214000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>193900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E48" s="3">
         <v>35600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E49" s="3">
         <v>39500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>40200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>41700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>42400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>43200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>44100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>51700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3800</v>
       </c>
       <c r="H52" s="3">
         <v>3800</v>
       </c>
       <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
         <v>4100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2700</v>
       </c>
       <c r="M52" s="3">
         <v>2700</v>
       </c>
       <c r="N52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E54" s="3">
         <v>279100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>314100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>337900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>290000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>313700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>314200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>289900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>292700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>274100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E57" s="3">
         <v>55200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>75800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>86300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>85200</v>
       </c>
       <c r="M57" s="3">
         <v>85200</v>
       </c>
       <c r="N57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="O57" s="3">
         <v>88800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>64400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,122 +2815,131 @@
         <v>130300</v>
       </c>
       <c r="H58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="I58" s="3">
         <v>72000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>39700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>53600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>56900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E59" s="3">
         <v>66500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>75600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>57800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>75600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E60" s="3">
         <v>251900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>239500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>258600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>288700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>214900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>181600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>181000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>182800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>235100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>220600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>230000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>194300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +2947,7 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
@@ -2813,78 +2956,84 @@
         <v>800</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>55700</v>
       </c>
       <c r="J61" s="3">
         <v>55700</v>
       </c>
       <c r="K61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="L61" s="3">
         <v>55600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>55200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>54700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>54600</v>
       </c>
       <c r="P61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E62" s="3">
         <v>38400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>37600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>38000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E66" s="3">
         <v>291000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>277900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>305000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>327500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>285200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>283100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>286000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>335200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>308500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>302000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>265200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-168000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-146800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-127600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-126900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-135000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-140700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-137700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-135200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-125300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-106400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-21000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-18200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +3826,20 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2100</v>
       </c>
       <c r="G83" s="3">
         <v>2100</v>
@@ -3649,7 +3848,7 @@
         <v>2100</v>
       </c>
       <c r="I83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J83" s="3">
         <v>2200</v>
@@ -3658,22 +3857,25 @@
         <v>2200</v>
       </c>
       <c r="L83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2600</v>
       </c>
       <c r="O83" s="3">
         <v>2600</v>
       </c>
       <c r="P83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E89" s="3">
         <v>5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>56100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-22700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4661,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>35200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4442,18 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E8" s="3">
         <v>111500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>105000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>93100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>105100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>153100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>115800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>136300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>127100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E9" s="3">
         <v>98300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>86200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>96300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>89300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>87400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>113100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>117500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E10" s="3">
         <v>13200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,34 +1006,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1024,20 +1044,23 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1071,7 @@
         <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
@@ -1060,7 +1083,7 @@
         <v>800</v>
       </c>
       <c r="J15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>900</v>
@@ -1072,7 +1095,7 @@
         <v>900</v>
       </c>
       <c r="N15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="O15" s="3">
         <v>1300</v>
@@ -1081,10 +1104,13 @@
         <v>1300</v>
       </c>
       <c r="Q15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E17" s="3">
         <v>126100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>108900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>108800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>143200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>134000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>154400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>142900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>130600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,195 +1258,207 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
       </c>
       <c r="G22" s="3">
         <v>1500</v>
       </c>
       <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2100</v>
       </c>
       <c r="M22" s="3">
         <v>2100</v>
       </c>
       <c r="N22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1421,34 +1467,37 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,20 +1707,20 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1670,8 +1731,8 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,90 +1858,96 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E43" s="3">
         <v>66700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>56500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>64400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>67800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>87400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>72700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>71300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>144800</v>
+      </c>
+      <c r="E44" s="3">
         <v>129300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>109100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>108200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>140300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>125600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>108800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>117800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>105600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>112400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>96000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>222300</v>
+      </c>
+      <c r="E46" s="3">
         <v>209500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>202700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>230000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>251300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>201400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>222500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>210500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>206000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>218500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>216000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>214000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>193900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E48" s="3">
         <v>34400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>47100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E49" s="3">
         <v>38900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>39500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>40200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>40900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>41700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>42400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>43200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>44100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>51700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3800</v>
       </c>
       <c r="I52" s="3">
         <v>3800</v>
       </c>
       <c r="J52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2700</v>
       </c>
       <c r="N52" s="3">
         <v>2700</v>
       </c>
       <c r="O52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E54" s="3">
         <v>284400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>279100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>284000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>314100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>337900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>290000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>313700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>303400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>314200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>292700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>274100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +2880,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E57" s="3">
         <v>79800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>75800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>86300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>85200</v>
       </c>
       <c r="N57" s="3">
         <v>85200</v>
       </c>
       <c r="O57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="P57" s="3">
         <v>88800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>64400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>130300</v>
+        <v>155700</v>
       </c>
       <c r="E58" s="3">
         <v>130300</v>
@@ -2818,128 +2952,137 @@
         <v>130300</v>
       </c>
       <c r="I58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="J58" s="3">
         <v>72000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>39700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>56900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E59" s="3">
         <v>67500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>77600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>83000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>80800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>88700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E60" s="3">
         <v>277600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>251900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>239500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>258600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>288700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>214900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>181600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>181000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>182800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>235100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>220600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>230000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>194300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,7 +3093,7 @@
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
@@ -2959,81 +3102,87 @@
         <v>800</v>
       </c>
       <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>55700</v>
       </c>
       <c r="K61" s="3">
         <v>55700</v>
       </c>
       <c r="L61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="M61" s="3">
         <v>55600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>54700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>54600</v>
       </c>
       <c r="Q61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E62" s="3">
         <v>33500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>38000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>329800</v>
+      </c>
+      <c r="E66" s="3">
         <v>311800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>291000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>277900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>305000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>327500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>285200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>286000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>335200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>308500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>302000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>265200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-190800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-183600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-168000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-146800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-127600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-126900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-135000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-140700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-137700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-135200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-125300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-106400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-27400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-21000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,13 +4035,13 @@
         <v>1800</v>
       </c>
       <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2100</v>
       </c>
       <c r="H83" s="3">
         <v>2100</v>
@@ -3851,7 +4050,7 @@
         <v>2100</v>
       </c>
       <c r="J83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -3860,22 +4059,25 @@
         <v>2200</v>
       </c>
       <c r="M83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2600</v>
       </c>
       <c r="P83" s="3">
         <v>2600</v>
       </c>
       <c r="Q83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
       <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-600</v>
       </c>
       <c r="I91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>56100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-22700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-16700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>17200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,32 +4913,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>35200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4697,18 +4949,21 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E8" s="3">
         <v>117600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>111500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>100200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>105000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>93100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>105100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>153100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>115800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>136300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>127100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E9" s="3">
         <v>106300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>93100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>96300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>89300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>87400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>111600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>113100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>126200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>117500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E10" s="3">
         <v>11300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,26 +1039,26 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1047,20 +1066,23 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1096,7 @@
         <v>600</v>
       </c>
       <c r="G15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -1086,7 +1108,7 @@
         <v>800</v>
       </c>
       <c r="K15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>900</v>
@@ -1098,7 +1120,7 @@
         <v>900</v>
       </c>
       <c r="O15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="P15" s="3">
         <v>1300</v>
@@ -1107,10 +1129,13 @@
         <v>1300</v>
       </c>
       <c r="R15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E17" s="3">
         <v>123300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>108900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>108800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>134000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>154400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>142900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,193 +1294,205 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-12800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1500</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
       </c>
       <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2100</v>
       </c>
       <c r="N22" s="3">
         <v>2100</v>
       </c>
       <c r="O22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,13 +1500,13 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1470,34 +1515,37 @@
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,20 +1770,20 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1734,8 +1794,8 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,93 +1930,99 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E43" s="3">
         <v>63300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>66700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>56500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>64400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>82200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>87400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>72700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E44" s="3">
         <v>144800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>129300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>109100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>108200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>128800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>140300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>125600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>108800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>105600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>112400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>96000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E46" s="3">
         <v>222300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>202700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>230000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>251300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>201400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>222500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>210500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>206000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>218500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>216000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>214000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>193900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E48" s="3">
         <v>32900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>47100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E49" s="3">
         <v>38300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>38900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>39500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>40200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>40900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>41700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>42400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>43200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>44100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>51700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,49 +2819,52 @@
         <v>1800</v>
       </c>
       <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3800</v>
       </c>
       <c r="J52" s="3">
         <v>3800</v>
       </c>
       <c r="K52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2700</v>
       </c>
       <c r="O52" s="3">
         <v>2700</v>
       </c>
       <c r="P52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E54" s="3">
         <v>295300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>279100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>284000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>314100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>337900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>290000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>313700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>314200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>289900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>292700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>274100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,66 +3010,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E57" s="3">
         <v>89700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>67300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>75800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>86300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>85200</v>
       </c>
       <c r="O57" s="3">
         <v>85200</v>
       </c>
       <c r="P57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>88800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>64400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E58" s="3">
         <v>155700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>130300</v>
       </c>
       <c r="F58" s="3">
         <v>130300</v>
@@ -2955,139 +3088,148 @@
         <v>130300</v>
       </c>
       <c r="J58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K58" s="3">
         <v>72000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>56900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>54300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E59" s="3">
         <v>50700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>77600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>83000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>75600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>80800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>88700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E60" s="3">
         <v>296200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>277600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>251900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>239500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>258600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>288700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>214900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>181600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>182800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>235100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>220600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>230000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>194300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>25600</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
@@ -3096,7 +3238,7 @@
         <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
@@ -3105,84 +3247,90 @@
         <v>800</v>
       </c>
       <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>55700</v>
       </c>
       <c r="L61" s="3">
         <v>55700</v>
       </c>
       <c r="M61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="N61" s="3">
         <v>55600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>55200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>54700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>54800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>54600</v>
       </c>
       <c r="R61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E62" s="3">
         <v>33000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>33500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E66" s="3">
         <v>329800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>311800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>291000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>277900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>305000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>327500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>262100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>285200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>286000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>335200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>308500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>302000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>265200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-190800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-183600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-168000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-149900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-146800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-145400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-127600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-126900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-135000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-140700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-137700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-135200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-125300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-106400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-34500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-27400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-21000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,25 +4223,26 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1800</v>
       </c>
       <c r="F83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2100</v>
       </c>
       <c r="I83" s="3">
         <v>2100</v>
@@ -4053,7 +4251,7 @@
         <v>2100</v>
       </c>
       <c r="K83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L83" s="3">
         <v>2200</v>
@@ -4062,22 +4260,25 @@
         <v>2200</v>
       </c>
       <c r="N83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2600</v>
       </c>
       <c r="Q83" s="3">
         <v>2600</v>
       </c>
       <c r="R83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E100" s="3">
         <v>25300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>56100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-22700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-16700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,35 +5164,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4952,18 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F8" s="3">
         <v>127000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>117600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>111500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>105000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>114500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>93100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>153100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>138500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>138700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>115800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>138200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>136300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>127100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>82200</v>
+      </c>
+      <c r="F9" s="3">
         <v>117300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>106300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>98300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>93100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>86200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>96300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>89300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>87400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>123400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>111600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>113100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>98100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>126200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>117500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>109000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F10" s="3">
         <v>9700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>11300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>13200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>18800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>26900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>25600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>17700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>12000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>18800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>18100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,69 +1062,81 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
@@ -1099,10 +1145,10 @@
         <v>600</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
@@ -1111,10 +1157,10 @@
         <v>800</v>
       </c>
       <c r="L15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N15" s="3">
         <v>900</v>
@@ -1123,19 +1169,25 @@
         <v>900</v>
       </c>
       <c r="P15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="Q15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="R15" s="3">
         <v>1300</v>
       </c>
       <c r="S15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>98700</v>
+      </c>
+      <c r="F17" s="3">
         <v>132600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>123300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>126100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>115800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>106600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>115600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>108900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>108800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>143200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>134000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>121400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>154400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>142900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>130600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-15800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1297,255 +1365,285 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-10100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-13700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>10300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-14100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2200</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
       </c>
       <c r="I22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-17800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-18700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-600</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-18200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-18800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-18200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-18800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,23 +1895,23 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>2300</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1797,11 +1919,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,96 +2073,108 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>10100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-18200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-18800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-18200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-18800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,43 +2399,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>26700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2272,16 +2446,22 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>78100</v>
+      </c>
+      <c r="F43" s="3">
         <v>72100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>63300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>66700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>56500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>64400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>64700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>67800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>106300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>82200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>79700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>76400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>87400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>72700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>71300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>139100</v>
+      </c>
+      <c r="F44" s="3">
         <v>142200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>144800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>129300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>109100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>108200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>128800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>140300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>125600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>108800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>114700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>109800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>117800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>105600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>112400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>96000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>9300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>16500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>24200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>22900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>26900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>26600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>231500</v>
+      </c>
+      <c r="F46" s="3">
         <v>230200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>222300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>209500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>202700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>230000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>251300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>201400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>222500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>210500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>206000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>218500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>216000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>214000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>193900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F48" s="3">
         <v>30900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>32900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>34400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>35600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>37300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>39200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>41200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>43900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>45100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>46000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>47100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>24300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>24900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F49" s="3">
         <v>37600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>38300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>38900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>39500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>40200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>40900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>41700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>43200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>44100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>45000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>45900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>46800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>50400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>51700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>1800</v>
       </c>
       <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>299000</v>
+      </c>
+      <c r="F54" s="3">
         <v>300500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>295300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>284400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>279100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>284000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>314100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>337900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>290000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>313700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>303400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>314200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>289900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>292700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>274100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,75 +3271,83 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>82600</v>
+      </c>
+      <c r="F57" s="3">
         <v>93300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>89700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>79800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>55200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>31500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>67400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>67300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>75800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>86300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>83900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>85200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>85200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>88800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>64400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>170200</v>
+      </c>
+      <c r="F58" s="3">
         <v>155300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>155700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>130300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>130300</v>
       </c>
       <c r="H58" s="3">
         <v>130300</v>
@@ -3091,246 +3359,276 @@
         <v>130300</v>
       </c>
       <c r="K58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="L58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="M58" s="3">
         <v>72000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>39700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>36900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>53600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>56900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>54600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>52500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>54300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>36500</v>
+      </c>
+      <c r="F59" s="3">
         <v>34800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>50700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>66500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>77600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>83000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>91000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>75600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>66000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>45300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>93000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>80800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>88700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>75600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>324900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>289300</v>
+      </c>
+      <c r="F60" s="3">
         <v>283300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>296200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>277600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>251900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>239500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>258600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>288700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>214900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>181600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>181000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>182800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>235100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>220600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>230000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>194300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>25600</v>
       </c>
-      <c r="E61" s="3">
-        <v>700</v>
-      </c>
       <c r="F61" s="3">
-        <v>700</v>
+        <v>25600</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
       </c>
       <c r="K61" s="3">
+        <v>800</v>
+      </c>
+      <c r="L61" s="3">
+        <v>800</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>55700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>55700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>55600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>55200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>54700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>54800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>54600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F62" s="3">
         <v>33600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>33000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>33500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>38400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>37600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>45700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>38000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>46300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>47900</v>
       </c>
       <c r="M62" s="3">
         <v>46300</v>
       </c>
       <c r="N62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="O62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="P62" s="3">
         <v>47600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>44900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>33100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>17200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>16200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>350100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>343400</v>
+      </c>
+      <c r="F66" s="3">
         <v>342600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>329800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>311800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>291000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>277900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>305000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>327500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>262100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>285200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>283100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>286000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>335200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>308500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>302000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>265200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-198400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-190800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-183600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-168000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-149900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-146800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-145400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-127600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-126900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-135000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-140700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-137700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-135200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-125300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-106400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-42000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-34500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-27400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-21000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>8900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-18200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-18800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2100</v>
       </c>
       <c r="K83" s="3">
         <v>2100</v>
       </c>
       <c r="L83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N83" s="3">
         <v>2200</v>
       </c>
       <c r="O83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-24900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-20300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>24300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>17200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-10500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F100" s="3">
         <v>23800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>25300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>56100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-22700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-16700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>17200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-18300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>35200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -1595,7 +1595,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
@@ -1713,7 +1713,7 @@
         <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-7600</v>
+        <v>-8200</v>
       </c>
       <c r="G26" s="3">
         <v>-7200</v>
@@ -1772,7 +1772,7 @@
         <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-7600</v>
+        <v>-8200</v>
       </c>
       <c r="G27" s="3">
         <v>-7200</v>
@@ -1889,8 +1889,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+      <c r="F29" s="3">
+        <v>600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E8" s="3">
         <v>120500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>117600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>111500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>100200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>105000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>93100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>153100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>138700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>136300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>127100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E9" s="3">
         <v>102200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>82200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>117300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>106300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>86200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>96300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>89300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>87400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>113100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>117500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>109000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E10" s="3">
         <v>18300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>12000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
         <v>4600</v>
       </c>
       <c r="F12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,8 +1099,8 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1088,26 +1108,26 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1115,20 +1135,23 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1162,7 @@
         <v>500</v>
       </c>
       <c r="F15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G15" s="3">
         <v>600</v>
@@ -1151,7 +1174,7 @@
         <v>600</v>
       </c>
       <c r="J15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
@@ -1163,7 +1186,7 @@
         <v>800</v>
       </c>
       <c r="N15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O15" s="3">
         <v>900</v>
@@ -1175,7 +1198,7 @@
         <v>900</v>
       </c>
       <c r="R15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="S15" s="3">
         <v>1300</v>
@@ -1184,10 +1207,13 @@
         <v>1300</v>
       </c>
       <c r="U15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E17" s="3">
         <v>117200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>123300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>126100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>143200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>134000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>121400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>154400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>142900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>130600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1371,243 +1405,255 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-14100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>1500</v>
       </c>
       <c r="L22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2100</v>
       </c>
       <c r="Q22" s="3">
         <v>2100</v>
       </c>
       <c r="R22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1616,34 +1662,37 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,11 +1950,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1901,20 +1962,20 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2300</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1925,8 +1986,8 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2079,102 +2149,108 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>5400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2609,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E43" s="3">
         <v>92300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>72100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>56500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>76400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>87400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>72700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>71300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E44" s="3">
         <v>131100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>139100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>142200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>144800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>129300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>109100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>108200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>140300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>125600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>108800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>114700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>109800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>117800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>105600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>112400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>96000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E45" s="3">
         <v>14900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E46" s="3">
         <v>241800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>231500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>230200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>222300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>209500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>202700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>230000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>251300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>201400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>222500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>210500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>206000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>218500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>216000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>214000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>193900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E48" s="3">
         <v>26800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>28600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E49" s="3">
         <v>36500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>37100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>37600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>38300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>38900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>39500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>40200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>45000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>45900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>51700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,16 +3167,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
@@ -3068,49 +3188,52 @@
         <v>1800</v>
       </c>
       <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3800</v>
       </c>
       <c r="M52" s="3">
         <v>3800</v>
       </c>
       <c r="N52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2700</v>
       </c>
       <c r="R52" s="3">
         <v>2700</v>
       </c>
       <c r="S52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T52" s="3">
         <v>3800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>311600</v>
+      </c>
+      <c r="E54" s="3">
         <v>307000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>299000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>295300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>284400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>279100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>284000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>314100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>337900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>290000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>313700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>303400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>314200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>289900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>292700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>274100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,84 +3403,88 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E57" s="3">
         <v>75900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>93300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>67300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>75800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>86300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>83900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>85200</v>
       </c>
       <c r="R57" s="3">
         <v>85200</v>
       </c>
       <c r="S57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="T57" s="3">
         <v>88800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>64400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>211200</v>
+      </c>
+      <c r="E58" s="3">
         <v>210000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>170200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>155300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>155700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>130300</v>
       </c>
       <c r="I58" s="3">
         <v>130300</v>
@@ -3365,152 +3499,161 @@
         <v>130300</v>
       </c>
       <c r="M58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="N58" s="3">
         <v>72000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>39700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>36900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>53600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>56900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>54600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>52500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>54300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E59" s="3">
         <v>39000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>66500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>91000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>80800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>88700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>75600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E60" s="3">
         <v>324900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>289300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>283300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>296200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>277600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>251900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>239500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>258600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>288700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>214900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>181600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>181000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>182800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>235100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>220600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>230000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>194300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,13 +3661,13 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>25600</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>25600</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>25600</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
@@ -3533,7 +3676,7 @@
         <v>700</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -3542,93 +3685,99 @@
         <v>800</v>
       </c>
       <c r="M61" s="3">
+        <v>800</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>55700</v>
       </c>
       <c r="O61" s="3">
         <v>55700</v>
       </c>
       <c r="P61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>55600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>55200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>54700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>54800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>54600</v>
       </c>
       <c r="U61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>33600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>33000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>33500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>37600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>351300</v>
+      </c>
+      <c r="E66" s="3">
         <v>350100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>343400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>342600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>311800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>291000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>277900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>305000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>327500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>285200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>283100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>286000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>335200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>308500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>302000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>265200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-199600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-201000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-190800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-183600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-168000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-149900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-146800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-145400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-126900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-135000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-140700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-137700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-135200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-125300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-106400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-43000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-44400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-42000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-34500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-27400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-21000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4634,22 +4833,22 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1800</v>
       </c>
       <c r="H83" s="3">
         <v>1800</v>
       </c>
       <c r="I83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2100</v>
       </c>
       <c r="L83" s="3">
         <v>2100</v>
@@ -4658,7 +4857,7 @@
         <v>2100</v>
       </c>
       <c r="N83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="O83" s="3">
         <v>2200</v>
@@ -4667,22 +4866,25 @@
         <v>2200</v>
       </c>
       <c r="Q83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R83" s="3">
         <v>2300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>2600</v>
       </c>
       <c r="T83" s="3">
         <v>2600</v>
       </c>
       <c r="U83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
       </c>
       <c r="J91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
       <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>14700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>56100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-16700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>17200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,44 +5920,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5716,18 +5968,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>137000</v>
+      </c>
+      <c r="F8" s="3">
         <v>124900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>120500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>98900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>127000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>117600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>111500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>105000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>114500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>93100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>105100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>153100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>138500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>138700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>115800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>138200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>136300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>127100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>107600</v>
+      </c>
+      <c r="F9" s="3">
         <v>100800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>102200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>82200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>117300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>106300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>98300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>93100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>86200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>96300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>89300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>87400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>123400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>111600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>113100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>98100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>126200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>117500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>109000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F10" s="3">
         <v>24100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>16700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>11300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>13200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>29700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>26900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>25600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>17700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>12000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>18800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>18100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,61 +1141,67 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1165,10 +1210,10 @@
         <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -1177,10 +1222,10 @@
         <v>600</v>
       </c>
       <c r="K15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
@@ -1189,10 +1234,10 @@
         <v>800</v>
       </c>
       <c r="O15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q15" s="3">
         <v>900</v>
@@ -1201,19 +1246,25 @@
         <v>900</v>
       </c>
       <c r="S15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="U15" s="3">
         <v>1300</v>
       </c>
       <c r="V15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>123100</v>
+      </c>
+      <c r="F17" s="3">
         <v>117700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>117200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>98700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>132600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>123300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>126100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>115800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>106600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>115600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>108900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>108800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>143200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>130400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>134000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>121400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>154400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>142900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>130600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-15600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-15800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-16200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1408,291 +1475,321 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-5400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-10100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-6400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F21" s="3">
         <v>8900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-13700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-14100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-7200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2200</v>
       </c>
       <c r="K22" s="3">
         <v>1500</v>
       </c>
       <c r="L22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-17800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-9700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-18700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-11700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>-800</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>400</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-600</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-18200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-18800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-18200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-18800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,35 +2074,35 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>600</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>2300</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1989,11 +2110,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2152,105 +2291,117 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>5400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>10100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>6400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-18200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-17700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-18800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-18200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-17700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-18800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,52 +2659,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F41" s="3">
         <v>16500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>32500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2542,16 +2715,22 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2791,286 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F43" s="3">
         <v>86400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>92300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>78100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>72100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>63300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>66700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>56500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>64400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>64700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>67800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>67400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>106300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>82200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>79700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>76400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>87400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>72700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>71300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F44" s="3">
         <v>127200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>131100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>139100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>142200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>144800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>129300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>109100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>108200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>128800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>140300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>125600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>108800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>114700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>109800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>117800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>105600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>112400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>96000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>10600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>24200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>22900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>26900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>26600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>265200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>255300</v>
+      </c>
+      <c r="F46" s="3">
         <v>248400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>241800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>231500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>230200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>222300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>209500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>202700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>230000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>251300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>201400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>222500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>210500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>206000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>218500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>216000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>214000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>193900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3131,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F48" s="3">
         <v>25100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>28600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>30900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>32900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>34400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>35600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>37300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>39200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>41200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>42400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>43900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>45100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>46000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>47100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>24300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>24500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>24900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F49" s="3">
         <v>36000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>36500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>37100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>37600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>38300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>38900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>39500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>40200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>40900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>41700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>42400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>43200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>44100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>45000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>45900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>46800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>50400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>51700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3179,61 +3418,67 @@
         <v>2000</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1800</v>
       </c>
       <c r="H52" s="3">
         <v>1800</v>
       </c>
       <c r="I52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>327800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>319900</v>
+      </c>
+      <c r="F54" s="3">
         <v>311600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>307000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>299000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>295300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>284400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>279100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>284000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>314100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>337900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>290000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>313700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>303400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>314200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>289900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>292700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>274100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,93 +3663,101 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F57" s="3">
         <v>73100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>75900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>82600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>93300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>89700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>79800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>55200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>31500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>45200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>67400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>67300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>75800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>86300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>83900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>85200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>85200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>88800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>64400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>205800</v>
+      </c>
+      <c r="F58" s="3">
         <v>211200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>210000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>170200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>155300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>155700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>130300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>130300</v>
       </c>
       <c r="K58" s="3">
         <v>130300</v>
@@ -3502,282 +3769,312 @@
         <v>130300</v>
       </c>
       <c r="N58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="O58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="P58" s="3">
         <v>72000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>39700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>36900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>53600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>56900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>54600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>52500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>54300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F59" s="3">
         <v>42600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>39000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>34800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>50700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>67500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>66500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>77600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>83000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>91000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>75600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>66000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>57800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>45300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>93000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>80800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>88700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>75600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>319300</v>
+      </c>
+      <c r="F60" s="3">
         <v>327000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>324900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>289300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>283300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>296200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>277600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>251900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>239500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>258600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>288700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>214900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>181600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>181000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>182800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>235100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>220600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>230000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>194300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>25600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>25600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
-      </c>
-      <c r="I61" s="3">
-        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
       </c>
       <c r="K61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
       </c>
       <c r="N61" s="3">
+        <v>800</v>
+      </c>
+      <c r="O61" s="3">
+        <v>800</v>
+      </c>
+      <c r="P61" s="3">
         <v>900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>55700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>55700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>55600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>55200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>54700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>54800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>54600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>54600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F62" s="3">
         <v>23900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>24700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>28500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>33600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>33000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>33500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>38400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>37600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>45700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>38000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>46300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>47900</v>
       </c>
       <c r="P62" s="3">
         <v>46300</v>
       </c>
       <c r="Q62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="R62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="S62" s="3">
         <v>47600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>44900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>33100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>17200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>16200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>354400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>350300</v>
+      </c>
+      <c r="F66" s="3">
         <v>351300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>350100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>343400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>342600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>329800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>311800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>291000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>277900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>305000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>327500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>262100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>285200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>283100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>286000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>335200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>308500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>302000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>265200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-187100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-196400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-199600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-201000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-198400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-190800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-183600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-168000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-149900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-146800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-145400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-127600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-126900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-140700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-137700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-135200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-125300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-106400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-39800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-43000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-44400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-42000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-34500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-27400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>27900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-21000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>8900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-18200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-17700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-18800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2100</v>
       </c>
       <c r="N83" s="3">
         <v>2100</v>
       </c>
       <c r="O83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="P83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="Q83" s="3">
         <v>2200</v>
       </c>
       <c r="R83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T83" s="3">
         <v>2300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F89" s="3">
         <v>12500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-17400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-24900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-19900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-20300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>24300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>17200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>4500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-10500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>200</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-400</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
       <c r="M91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>14700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>25300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>56100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-22700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>17200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F102" s="3">
         <v>13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-18300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>35200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>121900</v>
+      </c>
+      <c r="E8" s="3">
         <v>116500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>137000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>124900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>120500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>98900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>127000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>117600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>111500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>93100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>153100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>115800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>136300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>127100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E9" s="3">
         <v>93000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>102200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>82200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>117300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>106300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>96300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>89300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>113100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>98100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>117500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>109000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
         <v>23500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>25600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>12000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>4600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4600</v>
       </c>
       <c r="H12" s="3">
         <v>4600</v>
       </c>
       <c r="I12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J12" s="3">
         <v>4700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1167,8 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1156,26 +1176,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1183,20 +1203,23 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1227,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>500</v>
@@ -1216,7 +1239,7 @@
         <v>500</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1228,7 +1251,7 @@
         <v>600</v>
       </c>
       <c r="M15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N15" s="3">
         <v>800</v>
@@ -1240,7 +1263,7 @@
         <v>800</v>
       </c>
       <c r="Q15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R15" s="3">
         <v>900</v>
@@ -1252,7 +1275,7 @@
         <v>900</v>
       </c>
       <c r="U15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="V15" s="3">
         <v>1300</v>
@@ -1261,10 +1284,13 @@
         <v>1300</v>
       </c>
       <c r="X15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E17" s="3">
         <v>107900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>123100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>117700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>132600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>123300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>108900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>143200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>154400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>142900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>130600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E18" s="3">
         <v>8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-16200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1481,279 +1515,291 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-5400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-14100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>4700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1500</v>
       </c>
       <c r="N22" s="3">
         <v>1500</v>
       </c>
       <c r="O22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2100</v>
       </c>
       <c r="T22" s="3">
         <v>2100</v>
       </c>
       <c r="U22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-11700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1762,34 +1808,37 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2080,11 +2141,11 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <v>600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -2092,20 +2153,20 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2116,8 +2177,8 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2297,111 +2367,117 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>5400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-18800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-18800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E41" s="3">
         <v>26900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E43" s="3">
         <v>90700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>86400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>72100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>63300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>82200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>79700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>76400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>87400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>72700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>71300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E44" s="3">
         <v>132300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>127200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>139100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>142200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>144800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>129300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>109100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>108200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>128800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>140300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>125600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>108800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>114700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>109800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>117800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>105600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>112400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>96000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>26900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E46" s="3">
         <v>265200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>255300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>248400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>231500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>230200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>222300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>209500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>202700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>230000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>251300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>201400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>222500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>210500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>206000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>218500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>216000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>214000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>193900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E48" s="3">
         <v>25600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E49" s="3">
         <v>35100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>37100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>38300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>41700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>45000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>50400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>51700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,10 +3544,10 @@
         <v>2000</v>
       </c>
       <c r="G52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1800</v>
       </c>
       <c r="I52" s="3">
         <v>1800</v>
@@ -3436,49 +3556,52 @@
         <v>1800</v>
       </c>
       <c r="K52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3800</v>
       </c>
       <c r="P52" s="3">
         <v>3800</v>
       </c>
       <c r="Q52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2700</v>
       </c>
       <c r="U52" s="3">
         <v>2700</v>
       </c>
       <c r="V52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W52" s="3">
         <v>3800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>317600</v>
+      </c>
+      <c r="E54" s="3">
         <v>327800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>319900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>311600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>307000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>299000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>295300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>284400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>284000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>314100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>337900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>290000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>313700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>303400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>314200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>289900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>292700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>274100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,102 +3795,106 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E57" s="3">
         <v>79700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>73100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>75900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>93300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>75800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>86300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>83900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>85200</v>
       </c>
       <c r="U57" s="3">
         <v>85200</v>
       </c>
       <c r="V57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="W57" s="3">
         <v>88800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>64400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E58" s="3">
         <v>210000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>205800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>211200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>210000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>170200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>155300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>155700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>130300</v>
       </c>
       <c r="L58" s="3">
         <v>130300</v>
@@ -3775,170 +3909,179 @@
         <v>130300</v>
       </c>
       <c r="P58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>72000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>53600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>56900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>54600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>54300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E59" s="3">
         <v>37500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>91000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>93000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>80800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>88700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>75600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>297900</v>
+      </c>
+      <c r="E60" s="3">
         <v>327200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>319300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>327000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>324900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>289300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>283300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>296200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>277600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>251900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>239500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>258600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>288700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>214900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>181600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>181000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>182800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>235100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>220600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>230000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>194300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,22 +4089,22 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>5000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>25600</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>25600</v>
       </c>
       <c r="J61" s="3">
-        <v>700</v>
+        <v>25600</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
@@ -3970,7 +4113,7 @@
         <v>700</v>
       </c>
       <c r="M61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>800</v>
@@ -3979,102 +4122,108 @@
         <v>800</v>
       </c>
       <c r="P61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>55700</v>
       </c>
       <c r="R61" s="3">
         <v>55700</v>
       </c>
       <c r="S61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="T61" s="3">
         <v>55600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>55200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>54700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>54800</v>
-      </c>
-      <c r="W61" s="3">
-        <v>54600</v>
       </c>
       <c r="X61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E62" s="3">
         <v>26800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>37600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>337700</v>
+      </c>
+      <c r="E66" s="3">
         <v>354400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>350300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>351300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>350100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>343400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>342600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>329800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>311800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>291000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>277900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>305000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>262100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>285200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>286000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>335200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>308500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>302000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>265200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-183400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-187100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-196400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-199600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-201000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-190800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-183600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-168000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-149900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-146800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-145400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-127600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-126900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-135000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-140700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-137700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-135200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-125300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-106400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-26600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-30400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-39800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-43000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-44400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-42000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-34500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-27400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-21000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-18600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-9300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-18800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,10 +5426,10 @@
         <v>1400</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1700</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -5239,22 +5438,22 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1800</v>
       </c>
       <c r="K83" s="3">
         <v>1800</v>
       </c>
       <c r="L83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2100</v>
       </c>
       <c r="O83" s="3">
         <v>2100</v>
@@ -5263,7 +5462,7 @@
         <v>2100</v>
       </c>
       <c r="Q83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="R83" s="3">
         <v>2200</v>
@@ -5272,22 +5471,25 @@
         <v>2200</v>
       </c>
       <c r="T83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U83" s="3">
         <v>2300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2700</v>
-      </c>
-      <c r="V83" s="3">
-        <v>2600</v>
       </c>
       <c r="W83" s="3">
         <v>2600</v>
       </c>
       <c r="X83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-24900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-10500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,67 +5950,70 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-600</v>
       </c>
       <c r="L91" s="3">
         <v>-600</v>
       </c>
       <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-600</v>
       </c>
       <c r="O91" s="3">
         <v>-600</v>
       </c>
       <c r="P91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,67 +6163,70 @@
         <v>-600</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>25300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>56100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>17200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,53 +6675,56 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6480,18 +6732,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PSIX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PSIX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E8" s="3">
         <v>121900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>137000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>124900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>120500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>117600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>111500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>93100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>153100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>115800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>138200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>136300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>127100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>94400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E9" s="3">
         <v>94900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>93000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>107600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>102200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>82200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>117300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>106300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>96300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>89300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>113100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>98100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>117500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>109000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E10" s="3">
         <v>27000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>25600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>12000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4600</v>
       </c>
       <c r="I12" s="3">
         <v>4600</v>
       </c>
       <c r="J12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,58 +1164,61 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>500</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1206,20 +1226,23 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1253,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>500</v>
@@ -1242,7 +1265,7 @@
         <v>500</v>
       </c>
       <c r="J15" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
@@ -1254,7 +1277,7 @@
         <v>600</v>
       </c>
       <c r="N15" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O15" s="3">
         <v>800</v>
@@ -1266,7 +1289,7 @@
         <v>800</v>
       </c>
       <c r="R15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S15" s="3">
         <v>900</v>
@@ -1278,7 +1301,7 @@
         <v>900</v>
       </c>
       <c r="V15" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="W15" s="3">
         <v>1300</v>
@@ -1287,10 +1310,13 @@
         <v>1300</v>
       </c>
       <c r="Y15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E17" s="3">
         <v>110600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>123100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>117700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>117200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>98700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>132600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>123300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>126100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>108900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>108800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>143200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>134000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>121400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>154400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>142900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>130600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E18" s="3">
         <v>11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1518,256 +1552,268 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-5400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>8800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E21" s="3">
         <v>12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-14100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1500</v>
       </c>
       <c r="O22" s="3">
         <v>1500</v>
       </c>
       <c r="P22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2100</v>
       </c>
       <c r="U22" s="3">
         <v>2100</v>
       </c>
       <c r="V22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-18700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,34 +1821,34 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1811,34 +1857,37 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-18800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-18800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,11 +2205,11 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
         <v>600</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -2156,20 +2217,20 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2300</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2180,8 +2241,8 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2370,114 +2440,120 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>5400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-8800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-18800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-18800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E41" s="3">
         <v>27800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2980,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E43" s="3">
         <v>90100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>90700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>92300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>72100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>106300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>82200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>79700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>76400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>87400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>72700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>71300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>59900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E44" s="3">
         <v>113200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>132300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>127200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>139100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>142200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>144800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>129300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>108200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>128800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>140300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>125600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>108800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>114700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>109800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>117800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>105600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>112400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>96000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>91700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>24200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>26900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E46" s="3">
         <v>242100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>265200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>255300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>241800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>231500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>230200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>222300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>209500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>202700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>230000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>251300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>201400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>222500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>210500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>206000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>218500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>216000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>214000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>193900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>172100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E48" s="3">
         <v>38800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>46000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>24900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E49" s="3">
         <v>34600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>35100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>37100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>37600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>46800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>50400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>51700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3646,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -3547,10 +3667,10 @@
         <v>2000</v>
       </c>
       <c r="H52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I52" s="3">
         <v>1900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1800</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
@@ -3559,49 +3679,52 @@
         <v>1800</v>
       </c>
       <c r="L52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3800</v>
       </c>
       <c r="Q52" s="3">
         <v>3800</v>
       </c>
       <c r="R52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S52" s="3">
         <v>4100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2700</v>
       </c>
       <c r="V52" s="3">
         <v>2700</v>
       </c>
       <c r="W52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X52" s="3">
         <v>3800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E54" s="3">
         <v>317600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>327800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>319900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>311600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>307000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>299000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>295300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>284400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>279100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>284000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>314100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>337900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>290000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>313700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>303400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>300400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>314200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>289900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>292700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>274100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,108 +3926,112 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E57" s="3">
         <v>71700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>73100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>75900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>82600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>93300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>75800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>86300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>83900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>85200</v>
       </c>
       <c r="V57" s="3">
         <v>85200</v>
       </c>
       <c r="W57" s="3">
+        <v>85200</v>
+      </c>
+      <c r="X57" s="3">
         <v>88800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>64400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>55200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E58" s="3">
         <v>190000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>210000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>205800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>211200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>210000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>170200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>155300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>155700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>130300</v>
       </c>
       <c r="M58" s="3">
         <v>130300</v>
@@ -3912,202 +4046,211 @@
         <v>130300</v>
       </c>
       <c r="Q58" s="3">
+        <v>130300</v>
+      </c>
+      <c r="R58" s="3">
         <v>72000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>53600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>56900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>54600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>52500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>54300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>36100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>91000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>93000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>80800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>88700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>75600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>276300</v>
+      </c>
+      <c r="E60" s="3">
         <v>297900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>327200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>319300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>327000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>324900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>289300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>283300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>296200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>277600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>251900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>239500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>258600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>288700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>214900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>181600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>181000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>182800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>235100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>220600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>230000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>194300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>130600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>5000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>25600</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>25600</v>
       </c>
       <c r="K61" s="3">
-        <v>700</v>
+        <v>25600</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
@@ -4116,7 +4259,7 @@
         <v>700</v>
       </c>
       <c r="N61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>800</v>
@@ -4125,105 +4268,111 @@
         <v>800</v>
       </c>
       <c r="Q61" s="3">
+        <v>800</v>
+      </c>
+      <c r="R61" s="3">
         <v>900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>55700</v>
       </c>
       <c r="S61" s="3">
         <v>55700</v>
       </c>
       <c r="T61" s="3">
+        <v>55700</v>
+      </c>
+      <c r="U61" s="3">
         <v>55600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>55200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>54700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>54800</v>
-      </c>
-      <c r="X61" s="3">
-        <v>54600</v>
       </c>
       <c r="Y61" s="3">
         <v>54600</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E62" s="3">
         <v>39600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>37600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>46300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>317800</v>
+      </c>
+      <c r="E66" s="3">
         <v>337700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>354400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>350300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>351300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>350100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>342600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>311800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>291000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>277900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>305000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>327500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>262100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>285200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>286000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>335200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>308500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>302000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>265200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>228100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-169200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-177000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-183400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-187100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-196400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-199600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-201000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-190800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-183600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-168000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-149900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-146800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-145400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-127600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-126900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-135000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-140700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-137700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-135200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-125300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-106400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-94600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-20100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-26600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-30400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-39800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-43000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-44400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-42000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-34500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-27400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-21000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-18600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-18800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5429,10 +5628,10 @@
         <v>1400</v>
       </c>
       <c r="F83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -5441,22 +5640,22 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1800</v>
       </c>
       <c r="L83" s="3">
         <v>1800</v>
       </c>
       <c r="M83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2100</v>
       </c>
       <c r="P83" s="3">
         <v>2100</v>
@@ -5465,7 +5664,7 @@
         <v>2100</v>
       </c>
       <c r="R83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="S83" s="3">
         <v>2200</v>
@@ -5474,22 +5673,25 @@
         <v>2200</v>
       </c>
       <c r="U83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V83" s="3">
         <v>2300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>2600</v>
       </c>
       <c r="X83" s="3">
         <v>2600</v>
       </c>
       <c r="Y83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
       <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-600</v>
       </c>
       <c r="M91" s="3">
         <v>-600</v>
       </c>
       <c r="N91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-600</v>
       </c>
       <c r="P91" s="3">
         <v>-600</v>
       </c>
       <c r="Q91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
         <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>56100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>17200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,56 +6927,59 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6735,18 +6987,21 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
